--- a/data/processed/CascadiaMargin_carbon_abundance.xlsx
+++ b/data/processed/CascadiaMargin_carbon_abundance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinekeller/Desktop/cascadia-margin-lipids/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE642B1E-7A4F-0C49-88FD-4E76FD107AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF374EAF-DC6E-824B-BEEA-C88D27FFA0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="500" windowWidth="32200" windowHeight="22080" xr2:uid="{5EB331C3-10DF-C24A-ADC1-4DCB6056C63D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="61">
   <si>
     <t>Location</t>
   </si>
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t>Cren regio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cren regio </t>
   </si>
   <si>
     <t>S3</t>
@@ -663,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C3BB09-FB13-3346-B378-44A4CE6AC5C2}">
   <dimension ref="A1:XEP224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="C223" activeCellId="31" sqref="C37 C43 C49 C55 C61 C67 C73 C79 C85 C91 C97 C103 C109 C115 C121 C127 C133 C139 C145 C151 C157 C163 C169 C175 C181 C187 C193 C199 C205 C211 C217 C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -863,7 +860,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
@@ -898,7 +895,7 @@
     </row>
     <row r="8" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16370" s="7" customFormat="1">
       <c r="A8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>4</v>
@@ -923,7 +920,7 @@
     </row>
     <row r="9" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16370" s="7" customFormat="1">
       <c r="A9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>4</v>
@@ -948,7 +945,7 @@
     </row>
     <row r="10" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16370" s="7" customFormat="1">
       <c r="A10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>4</v>
@@ -973,7 +970,7 @@
     </row>
     <row r="11" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16370" s="7" customFormat="1">
       <c r="A11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>4</v>
@@ -998,7 +995,7 @@
     </row>
     <row r="12" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16370" s="7" customFormat="1">
       <c r="A12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>4</v>
@@ -1023,7 +1020,7 @@
     </row>
     <row r="13" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16370" s="13" customFormat="1">
       <c r="A13" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>4</v>
@@ -4402,7 +4399,7 @@
         <v>21</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D55" s="9">
         <v>0</v>
@@ -7762,7 +7759,7 @@
         <v>38</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D163" s="9">
         <v>30</v>
@@ -9533,7 +9530,7 @@
       <c r="B223" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C223" s="22" t="s">
+      <c r="C223" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D223" s="9">

--- a/data/processed/CascadiaMargin_carbon_abundance.xlsx
+++ b/data/processed/CascadiaMargin_carbon_abundance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinekeller/Desktop/cascadia-margin-lipids/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF1CADF-D0D0-BC49-858E-F7D47916246C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684CEDF1-64DC-724E-98A0-E40A6206889F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="500" windowWidth="32200" windowHeight="22080" xr2:uid="{5EB331C3-10DF-C24A-ADC1-4DCB6056C63D}"/>
+    <workbookView xWindow="16560" yWindow="500" windowWidth="21840" windowHeight="22000" xr2:uid="{5EB331C3-10DF-C24A-ADC1-4DCB6056C63D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,13 +216,13 @@
     <t>d13c_avg</t>
   </si>
   <si>
-    <t>Cren regio</t>
-  </si>
-  <si>
     <t>S3</t>
   </si>
   <si>
     <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
   <dimension ref="A1:XEP260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -854,7 +854,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="7"/>
@@ -874,7 +874,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8" s="8">
         <v>20</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="9" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16370">
       <c r="A9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>4</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="10" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16370">
       <c r="A10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>4</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="11" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16370">
       <c r="A11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>4</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="12" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16370">
       <c r="A12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>4</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="13" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16370">
       <c r="A13" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>4</v>
@@ -1012,13 +1012,13 @@
     </row>
     <row r="14" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16370">
       <c r="A14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="7"/>
@@ -1032,13 +1032,13 @@
     </row>
     <row r="15" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16370" s="10" customFormat="1">
       <c r="A15" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D15" s="8">
         <v>20</v>
@@ -3258,7 +3258,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="7"/>
@@ -3278,7 +3278,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D22" s="8">
         <v>20</v>
@@ -3476,7 +3476,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="7"/>
@@ -3498,7 +3498,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D29" s="8">
         <v>20</v>
@@ -3678,7 +3678,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="7"/>
@@ -3699,7 +3699,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D36" s="8">
         <v>0</v>
@@ -3889,7 +3889,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="7"/>
@@ -3910,7 +3910,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D43" s="8">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="7"/>
@@ -4121,7 +4121,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D50" s="8">
         <v>0</v>
@@ -4321,7 +4321,7 @@
         <v>4</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="7"/>
@@ -4341,7 +4341,7 @@
         <v>4</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D57" s="8">
         <v>0</v>
@@ -4529,7 +4529,7 @@
         <v>21</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="7"/>
@@ -4549,7 +4549,7 @@
         <v>21</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D64" s="8">
         <v>0</v>
@@ -4737,7 +4737,7 @@
         <v>21</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="7"/>
@@ -4757,7 +4757,7 @@
         <v>21</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D71" s="8">
         <v>0</v>
@@ -4945,7 +4945,7 @@
         <v>21</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="7"/>
@@ -4965,7 +4965,7 @@
         <v>21</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D78" s="8">
         <v>0</v>
@@ -5153,7 +5153,7 @@
         <v>21</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="7"/>
@@ -5173,7 +5173,7 @@
         <v>21</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D85" s="8">
         <v>0</v>
@@ -5361,7 +5361,7 @@
         <v>21</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="7"/>
@@ -5381,7 +5381,7 @@
         <v>21</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D92" s="8">
         <v>10</v>
@@ -5569,7 +5569,7 @@
         <v>21</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="7"/>
@@ -5589,7 +5589,7 @@
         <v>21</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D99" s="8">
         <v>10</v>
@@ -5777,7 +5777,7 @@
         <v>21</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="7"/>
@@ -5797,7 +5797,7 @@
         <v>21</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D106" s="8">
         <v>10</v>
@@ -5985,7 +5985,7 @@
         <v>21</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="7"/>
@@ -6005,7 +6005,7 @@
         <v>21</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D113" s="8">
         <v>10</v>
@@ -6193,7 +6193,7 @@
         <v>21</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="7"/>
@@ -6213,7 +6213,7 @@
         <v>21</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D120" s="8">
         <v>60</v>
@@ -6401,7 +6401,7 @@
         <v>21</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="7"/>
@@ -6421,7 +6421,7 @@
         <v>21</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D127" s="8">
         <v>60</v>
@@ -6609,7 +6609,7 @@
         <v>21</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="7"/>
@@ -6629,7 +6629,7 @@
         <v>21</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D134" s="8">
         <v>60</v>
@@ -6817,7 +6817,7 @@
         <v>21</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="7"/>
@@ -6837,7 +6837,7 @@
         <v>21</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D141" s="8">
         <v>60</v>
@@ -7025,7 +7025,7 @@
         <v>21</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="7"/>
@@ -7045,7 +7045,7 @@
         <v>21</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D148" s="8">
         <v>30</v>
@@ -7233,7 +7233,7 @@
         <v>21</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D154" s="8"/>
       <c r="E154" s="7"/>
@@ -7253,7 +7253,7 @@
         <v>21</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D155" s="8">
         <v>30</v>
@@ -7441,7 +7441,7 @@
         <v>21</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D161" s="8"/>
       <c r="E161" s="7"/>
@@ -7461,7 +7461,7 @@
         <v>21</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D162" s="8">
         <v>30</v>
@@ -7649,7 +7649,7 @@
         <v>21</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D168" s="8"/>
       <c r="E168" s="7"/>
@@ -7669,7 +7669,7 @@
         <v>21</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D169" s="8">
         <v>30</v>
@@ -7835,7 +7835,7 @@
         <v>38</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D175" s="8"/>
       <c r="E175" s="7"/>
@@ -7855,7 +7855,7 @@
         <v>38</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D176" s="8">
         <v>15</v>
@@ -8021,7 +8021,7 @@
         <v>38</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D182" s="8"/>
       <c r="E182" s="7"/>
@@ -8041,7 +8041,7 @@
         <v>38</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D183" s="8">
         <v>30</v>
@@ -8207,7 +8207,7 @@
         <v>38</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D189" s="8"/>
       <c r="E189" s="7"/>
@@ -8227,7 +8227,7 @@
         <v>38</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D190" s="8">
         <v>30</v>
@@ -8393,7 +8393,7 @@
         <v>38</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D196" s="8"/>
       <c r="E196" s="7"/>
@@ -8413,7 +8413,7 @@
         <v>38</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D197" s="8">
         <v>30</v>
@@ -8601,7 +8601,7 @@
         <v>38</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D203" s="8"/>
       <c r="E203" s="7"/>
@@ -8621,7 +8621,7 @@
         <v>38</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D204" s="8">
         <v>30</v>
@@ -8787,7 +8787,7 @@
         <v>38</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D210" s="8"/>
       <c r="E210" s="7"/>
@@ -8807,7 +8807,7 @@
         <v>38</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D211" s="8">
         <v>60</v>
@@ -8983,7 +8983,7 @@
         <v>38</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D217" s="8"/>
       <c r="E217" s="7"/>
@@ -9005,7 +9005,7 @@
         <v>38</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D218" s="8">
         <v>60</v>
@@ -9173,7 +9173,7 @@
         <v>38</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D224" s="8"/>
       <c r="E224" s="7"/>
@@ -9193,7 +9193,7 @@
         <v>38</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D225" s="8">
         <v>60</v>
@@ -9381,7 +9381,7 @@
         <v>38</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D231" s="8"/>
       <c r="E231" s="7"/>
@@ -9401,7 +9401,7 @@
         <v>38</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D232" s="8">
         <v>60</v>
@@ -9567,7 +9567,7 @@
         <v>38</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D238" s="8"/>
       <c r="E238" s="7"/>
@@ -9587,7 +9587,7 @@
         <v>38</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D239" s="8">
         <v>0</v>
@@ -9753,7 +9753,7 @@
         <v>38</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D245" s="8"/>
       <c r="E245" s="7"/>
@@ -9773,7 +9773,7 @@
         <v>38</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D246" s="8">
         <v>0</v>
@@ -9939,7 +9939,7 @@
         <v>38</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D252" s="8"/>
       <c r="E252" s="7"/>
@@ -9959,7 +9959,7 @@
         <v>38</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D253" s="8">
         <v>0</v>
@@ -10143,7 +10143,7 @@
         <v>38</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D259" s="8"/>
       <c r="E259" s="7"/>
@@ -10159,7 +10159,7 @@
         <v>38</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D260" s="8">
         <v>0</v>
